--- a/biology/Zoologie/Damascène_(pigeon)/Damascène_(pigeon).xlsx
+++ b/biology/Zoologie/Damascène_(pigeon)/Damascène_(pigeon).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Damasc%C3%A8ne_(pigeon)</t>
+          <t>Damascène_(pigeon)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le damascène (appelé parfois pigeon de Jérusalem) est une race de pigeon domestique originaire de la région de Damas en Syrie et sélectionnée par la suite par des éleveurs anglais[1]. Cette race est classée dans la catégorie des pigeons de forme[2].
+Le damascène (appelé parfois pigeon de Jérusalem) est une race de pigeon domestique originaire de la région de Damas en Syrie et sélectionnée par la suite par des éleveurs anglais. Cette race est classée dans la catégorie des pigeons de forme.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Damasc%C3%A8ne_(pigeon)</t>
+          <t>Damascène_(pigeon)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le damascène est l'une des races plus anciennes de pigeon, puisqu'il est élevé depuis plus de trois mille ans[3] et selon la légende la reine de Saba en aurait reçu un couple du roi Salomon[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le damascène est l'une des races plus anciennes de pigeon, puisqu'il est élevé depuis plus de trois mille ans et selon la légende la reine de Saba en aurait reçu un couple du roi Salomon.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Damasc%C3%A8ne_(pigeon)</t>
+          <t>Damascène_(pigeon)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s'agit d'un pigeon d'ornement de petite taille ou de taille moyenne, trapu et court, à la poitrine large et légèrement bombée. Son plumage est toujours blanc argent (dit « givré ») barré de noir. La sous-couleur est gris ardoise[4] et ses pattes sont rouge vif. Son bec, très court, et sa grande pupille (cerclée d'un iris rouge rubis[5]) sont d'un noir profond.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit d'un pigeon d'ornement de petite taille ou de taille moyenne, trapu et court, à la poitrine large et légèrement bombée. Son plumage est toujours blanc argent (dit « givré ») barré de noir. La sous-couleur est gris ardoise et ses pattes sont rouge vif. Son bec, très court, et sa grande pupille (cerclée d'un iris rouge rubis) sont d'un noir profond.
 </t>
         </is>
       </c>
